--- a/Data/Defines/Tables.xlsx
+++ b/Data/Defines/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lac_123_1234/Projects/OpenSource/Luban_Example/Data/Defines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700A64B-D6D6-044E-8F8B-906D1F21B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7A16F-7A89-1744-B4A9-5F95A84977A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>##</t>
   </si>
@@ -121,10 +121,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>GroupConfigCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,7 +129,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GroupConfig.json</t>
+    <t>ShapeConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShapeConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefOneConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefExample/001-RefOneConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTwoConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefExample/002-RefTwoConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefGroupConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefGroupConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcludeConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcludeConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeExampleConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeExampleConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I18N/LocalizeConfig.csv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_CN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_EN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +301,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -640,20 +706,205 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B13" si="0">_xlfn.CONCAT(C4,"Category")</f>
+        <v>GroupConfigCategory</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="str">
+        <f>C4</f>
+        <v>GroupConfig</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>ShapeConfigCategory</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L13" si="1">C5</f>
+        <v>ShapeConfig</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>RefOneConfigCategory</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>RefOneConfig</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>RefTwoConfigCategory</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>RefTwoConfig</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>RefGroupConfigCategory</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>RefGroupConfig</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ExcludeConfigCategory</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ExcludeConfig</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LocalizeExampleConfigCategory</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>LocalizeExampleConfig</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LocalizeConfig_CNCategory</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>LocalizeConfig_CN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LocalizeConfig_ENCategory</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>LocalizeConfig_EN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LocalizeConfig_TWCategory</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>LocalizeConfig_TW</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Defines/Tables.xlsx
+++ b/Data/Defines/Tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lac_123_1234/Projects/OpenSource/Luban_Example/Data/Defines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7A16F-7A89-1744-B4A9-5F95A84977A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953EF19-29FA-A94F-992E-CBD1858CCE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>##</t>
   </si>
@@ -194,6 +194,41 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipleKeyConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipleKeyConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1+key_2+key_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleRefConfig</t>
+  </si>
+  <si>
+    <t>SingleRefConfig.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -707,7 +742,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B13" si="0">_xlfn.CONCAT(C4,"Category")</f>
+        <f t="shared" ref="B4:B16" si="0">_xlfn.CONCAT(C4,"Category")</f>
         <v>GroupConfigCategory</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -739,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L13" si="1">C5</f>
+        <f t="shared" ref="L5:L16" si="1">C5</f>
         <v>ShapeConfig</v>
       </c>
     </row>
@@ -905,6 +940,72 @@
       <c r="L13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>LocalizeConfig_TW</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>MultipleKeyConfigCategory</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>MultipleKeyConfig</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>GlobalConfigCategory</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>GlobalConfig</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SingleRefConfigCategory</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SingleRefConfig</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Defines/Tables.xlsx
+++ b/Data/Defines/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lac_123_1234/Projects/OpenSource/Luban_Example/Data/Defines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953EF19-29FA-A94F-992E-CBD1858CCE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9DBA66-84A6-5B4A-92EE-4878374C2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22680" yWindow="840" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,18 +125,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GroupConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ShapeConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ShapeConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RefOneConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,26 +149,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RefGroupConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ExcludeConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ExcludeConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LocalizeExampleConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LocalizeExampleConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>I18N/LocalizeConfig.csv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,10 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MultipleKeyConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,10 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GlobalConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,7 +200,35 @@
     <t>SingleRefConfig</t>
   </si>
   <si>
-    <t>SingleRefConfig.xlsx</t>
+    <t>本地化示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一引用示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组剔除示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多态示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多主键示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多表引用示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔除示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例示例.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L4" t="str">
         <f>C4</f>
@@ -765,13 +765,13 @@
         <v>ShapeConfigCategory</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ref="L5:L16" si="1">C5</f>
@@ -784,13 +784,13 @@
         <v>RefOneConfigCategory</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -803,13 +803,13 @@
         <v>RefTwoConfigCategory</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -822,13 +822,13 @@
         <v>RefGroupConfigCategory</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -841,13 +841,13 @@
         <v>ExcludeConfigCategory</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -860,13 +860,13 @@
         <v>LocalizeExampleConfigCategory</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -879,17 +879,17 @@
         <v>LocalizeConfig_CNCategory</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -902,17 +902,17 @@
         <v>LocalizeConfig_ENCategory</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -925,17 +925,17 @@
         <v>LocalizeConfig_TWCategory</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -948,19 +948,19 @@
         <v>MultipleKeyConfigCategory</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -973,16 +973,16 @@
         <v>GlobalConfigCategory</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -995,13 +995,13 @@
         <v>SingleRefConfigCategory</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L16" s="5" t="str">
         <f t="shared" si="1"/>

--- a/Data/Defines/Tables.xlsx
+++ b/Data/Defines/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lac_123_1234/Projects/OpenSource/Luban_Example/Data/Defines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9DBA66-84A6-5B4A-92EE-4878374C2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656E846-AA77-7C48-89CE-B1BDF39440E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22680" yWindow="840" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7760" yWindow="560" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,38 +197,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>组剔除示例_GroupConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多态示例_ShapeConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多表引用示例_RefGroupConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多主键示例_MultipleKeyConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔除示例_ExcludeConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例示例_GlobalConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SingleRefConfig</t>
-  </si>
-  <si>
-    <t>本地化示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单一引用示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组剔除示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多态示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多主键示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多表引用示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剔除示例.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例示例.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一引用示例_SingleRefConfig.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化示例_LocalizeExampleConfig.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +624,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -752,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L4" t="str">
         <f>C4</f>
@@ -771,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ref="L5:L16" si="1">C5</f>
@@ -828,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -954,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>45</v>
@@ -979,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>47</v>
@@ -994,14 +995,14 @@
         <f t="shared" si="0"/>
         <v>SingleRefConfigCategory</v>
       </c>
-      <c r="C16" t="s">
-        <v>48</v>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L16" s="5" t="str">
         <f t="shared" si="1"/>

--- a/Data/Defines/Tables.xlsx
+++ b/Data/Defines/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lac_123_1234/Projects/OpenSource/Luban_Example/Data/Defines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656E846-AA77-7C48-89CE-B1BDF39440E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9E5E7-E408-2848-A296-7706A9814882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="560" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Data/Defines/Tables.xlsx
+++ b/Data/Defines/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lac_123_1234/Projects/OpenSource/Luban_Example/Data/Defines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9E5E7-E408-2848-A296-7706A9814882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD280B9C-E56D-7E45-ABFF-8F34D2161415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="560" windowWidth="19200" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
